--- a/dados/umses_alunos_2018.xlsx
+++ b/dados/umses_alunos_2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb95d6a7f4534cf5/Projetos 2018/Ciencia de Dados/Introducao a Ciencia de Dados/Trabalhos 2018/Questionario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important stuff\UNESP\3o Ano - 2o Semestre\Data Science\Trabalho final\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A67720-6036-4B94-87F7-0E048FFD3453}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CF1709-ACCE-4E9B-A247-C05B8535C287}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{D5DFAED4-3D0B-4958-B9A2-2717804177B8}"/>
   </bookViews>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C17B252-379D-4503-BCAA-F6A83E41DDC2}">
   <dimension ref="A1:AR69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="S38" workbookViewId="0">
+      <selection activeCell="AL52" sqref="AL52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5243,9 +5243,6 @@
       <c r="AF50">
         <v>3</v>
       </c>
-      <c r="AL50" t="s">
-        <v>53</v>
-      </c>
       <c r="AM50">
         <v>1</v>
       </c>
@@ -5329,6 +5326,9 @@
       <c r="AI51">
         <v>1</v>
       </c>
+      <c r="AL51" t="s">
+        <v>53</v>
+      </c>
       <c r="AM51">
         <v>1</v>
       </c>
@@ -6955,5 +6955,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados/umses_alunos_2018.xlsx
+++ b/dados/umses_alunos_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important stuff\UNESP\3o Ano - 2o Semestre\Data Science\Trabalho final\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CF1709-ACCE-4E9B-A247-C05B8535C287}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72970D4-58EC-408B-9554-4A5FA536BBEC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{D5DFAED4-3D0B-4958-B9A2-2717804177B8}"/>
   </bookViews>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C17B252-379D-4503-BCAA-F6A83E41DDC2}">
   <dimension ref="A1:AR69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S38" workbookViewId="0">
-      <selection activeCell="AL52" sqref="AL52"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,12 +722,21 @@
       <c r="J2">
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
       <c r="P2">
         <v>1</v>
       </c>
@@ -752,8 +761,14 @@
       <c r="X2">
         <v>1</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
       <c r="Z2">
         <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>9</v>
@@ -769,6 +784,15 @@
       </c>
       <c r="AG2">
         <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>1</v>
@@ -817,6 +841,9 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3">
         <v>1</v>
       </c>
@@ -829,6 +856,12 @@
       <c r="M3">
         <v>1</v>
       </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
       <c r="P3">
         <v>1</v>
       </c>
@@ -844,8 +877,23 @@
       <c r="U3">
         <v>1</v>
       </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
       <c r="W3">
         <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>6</v>
@@ -864,6 +912,15 @@
       </c>
       <c r="AH3">
         <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>4</v>
@@ -915,12 +972,21 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
       <c r="P4">
         <v>1</v>
       </c>
@@ -939,8 +1005,20 @@
       <c r="V4">
         <v>1</v>
       </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
       <c r="Z4">
         <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>9</v>
@@ -959,6 +1037,15 @@
       </c>
       <c r="AH4">
         <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>1</v>
@@ -1004,6 +1091,9 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5">
         <v>1</v>
       </c>
@@ -1016,6 +1106,12 @@
       <c r="M5">
         <v>1</v>
       </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
       <c r="P5">
         <v>1</v>
       </c>
@@ -1036,6 +1132,9 @@
       </c>
       <c r="W5">
         <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -1060,6 +1159,15 @@
       </c>
       <c r="AG5">
         <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -1108,6 +1216,9 @@
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6">
         <v>1</v>
       </c>
@@ -1119,6 +1230,15 @@
       </c>
       <c r="M6">
         <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1162,11 +1282,20 @@
       <c r="AF6">
         <v>2</v>
       </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
       <c r="AH6">
         <v>1</v>
       </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
       <c r="AJ6">
         <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -1212,15 +1341,30 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7">
         <v>1</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
       <c r="R7">
         <v>1</v>
       </c>
@@ -1233,8 +1377,23 @@
       <c r="U7">
         <v>1</v>
       </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
       <c r="W7">
         <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>6</v>
@@ -1253,6 +1412,15 @@
       </c>
       <c r="AH7">
         <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
       </c>
       <c r="AM7">
         <v>3</v>
@@ -1298,9 +1466,15 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8">
         <v>1</v>
       </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
       <c r="L8">
         <v>1</v>
       </c>
@@ -1310,6 +1484,12 @@
       <c r="N8">
         <v>1</v>
       </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
       <c r="R8">
         <v>1</v>
       </c>
@@ -1322,11 +1502,17 @@
       <c r="U8">
         <v>1</v>
       </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
         <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1351,6 +1537,15 @@
       </c>
       <c r="AH8">
         <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
       </c>
       <c r="AM8">
         <v>2</v>
@@ -1396,6 +1591,9 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9">
         <v>1</v>
       </c>
@@ -1410,6 +1608,12 @@
       </c>
       <c r="N9">
         <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
       </c>
       <c r="Q9" t="s">
         <v>44</v>
@@ -1432,6 +1636,9 @@
       <c r="W9">
         <v>1</v>
       </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
       <c r="Y9">
         <v>1</v>
       </c>
@@ -1452,6 +1659,18 @@
       </c>
       <c r="AF9">
         <v>2</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>1</v>
@@ -1500,8 +1719,29 @@
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10">
         <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
       </c>
       <c r="Q10" t="s">
         <v>45</v>
@@ -1521,6 +1761,15 @@
       <c r="V10">
         <v>1</v>
       </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
       <c r="Z10">
         <v>1</v>
       </c>
@@ -1544,6 +1793,15 @@
       </c>
       <c r="AH10">
         <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -1604,17 +1862,44 @@
       <c r="M11">
         <v>1</v>
       </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
         <v>1</v>
       </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
       <c r="W11">
         <v>1</v>
       </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
       <c r="Y11">
         <v>1</v>
       </c>
       <c r="Z11">
         <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>4</v>
@@ -1639,6 +1924,9 @@
       </c>
       <c r="AJ11">
         <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -1684,6 +1972,9 @@
       <c r="H12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12">
         <v>1</v>
       </c>
@@ -1699,6 +1990,12 @@
       <c r="N12">
         <v>1</v>
       </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
       <c r="R12">
         <v>1</v>
       </c>
@@ -1711,11 +2008,23 @@
       <c r="U12">
         <v>1</v>
       </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
       <c r="W12">
         <v>1</v>
       </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
       <c r="Y12">
         <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
       </c>
       <c r="AC12">
         <v>6</v>
@@ -1737,6 +2046,12 @@
       </c>
       <c r="AI12">
         <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -1782,15 +2097,33 @@
       <c r="H13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13">
         <v>1</v>
       </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
       <c r="S13">
         <v>1</v>
       </c>
@@ -1800,8 +2133,23 @@
       <c r="U13">
         <v>1</v>
       </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
       <c r="X13">
         <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
       </c>
       <c r="AC13">
         <v>5</v>
@@ -1820,6 +2168,15 @@
       </c>
       <c r="AH13">
         <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
       </c>
       <c r="AM13">
         <v>3</v>
@@ -1865,14 +2222,26 @@
       <c r="H14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="J14">
         <v>1</v>
       </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
         <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1892,14 +2261,23 @@
       <c r="U14">
         <v>1</v>
       </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
       <c r="W14">
         <v>1</v>
       </c>
       <c r="X14">
         <v>1</v>
       </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
       <c r="Z14">
         <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
       </c>
       <c r="AC14">
         <v>5</v>
@@ -1915,6 +2293,18 @@
       </c>
       <c r="AG14">
         <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
       </c>
       <c r="AM14">
         <v>3</v>
@@ -1966,17 +2356,56 @@
       <c r="J15">
         <v>1</v>
       </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
       <c r="L15">
         <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
       </c>
       <c r="Q15" t="s">
         <v>47</v>
       </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
       <c r="S15">
         <v>1</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
       <c r="U15">
         <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>4</v>
@@ -1992,6 +2421,18 @@
       </c>
       <c r="AG15">
         <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>3</v>
@@ -2037,9 +2478,15 @@
       <c r="H16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16">
         <v>1</v>
       </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <v>1</v>
       </c>
@@ -2049,6 +2496,12 @@
       <c r="N16">
         <v>1</v>
       </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
       <c r="R16">
         <v>1</v>
       </c>
@@ -2061,8 +2514,23 @@
       <c r="U16">
         <v>1</v>
       </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
       <c r="W16">
         <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>6</v>
@@ -2081,6 +2549,15 @@
       </c>
       <c r="AH16">
         <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -2141,17 +2618,44 @@
       <c r="M17">
         <v>1</v>
       </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
       <c r="P17">
         <v>1</v>
       </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
       <c r="S17">
         <v>1</v>
       </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
       <c r="U17">
         <v>1</v>
       </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
       <c r="W17">
         <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>5</v>
@@ -2165,8 +2669,17 @@
       <c r="AF17">
         <v>2</v>
       </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
       <c r="AH17">
         <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
       </c>
       <c r="AK17">
         <v>1</v>
@@ -2215,6 +2728,9 @@
       <c r="H18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
       <c r="J18">
         <v>1</v>
       </c>
@@ -2230,6 +2746,12 @@
       <c r="N18">
         <v>1</v>
       </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
       <c r="R18">
         <v>1</v>
       </c>
@@ -2245,11 +2767,20 @@
       <c r="V18">
         <v>1</v>
       </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
       <c r="X18">
         <v>1</v>
       </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
       <c r="Z18">
         <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>6</v>
@@ -2266,8 +2797,17 @@
       <c r="AG18">
         <v>1</v>
       </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
       <c r="AI18">
         <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
       </c>
       <c r="AM18">
         <v>2</v>
@@ -2328,6 +2868,15 @@
       <c r="M19">
         <v>1</v>
       </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
       <c r="R19">
         <v>1</v>
       </c>
@@ -2351,6 +2900,12 @@
       </c>
       <c r="Y19">
         <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
       </c>
       <c r="AC19">
         <v>6</v>
@@ -2369,6 +2924,12 @@
       </c>
       <c r="AH19">
         <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
       </c>
       <c r="AK19">
         <v>1</v>
@@ -2417,6 +2978,9 @@
       <c r="H20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="J20">
         <v>1</v>
       </c>
@@ -2429,17 +2993,44 @@
       <c r="M20">
         <v>1</v>
       </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
       <c r="R20">
         <v>1</v>
       </c>
       <c r="S20">
         <v>1</v>
       </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
       <c r="U20">
         <v>1</v>
       </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
       <c r="W20">
         <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
       </c>
       <c r="AC20">
         <v>7</v>
@@ -2456,8 +3047,17 @@
       <c r="AG20">
         <v>1</v>
       </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
       <c r="AJ20">
         <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
       </c>
       <c r="AM20">
         <v>2</v>
@@ -2503,6 +3103,9 @@
       <c r="H21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
       <c r="J21">
         <v>1</v>
       </c>
@@ -2515,17 +3118,44 @@
       <c r="M21">
         <v>1</v>
       </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
       <c r="R21">
         <v>1</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
       <c r="U21">
         <v>1</v>
       </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
       <c r="W21">
         <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>7</v>
@@ -2542,8 +3172,17 @@
       <c r="AG21">
         <v>1</v>
       </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
       <c r="AJ21">
         <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
       </c>
       <c r="AM21">
         <v>2</v>
@@ -2595,9 +3234,21 @@
       <c r="J22">
         <v>1</v>
       </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
       <c r="M22">
         <v>1</v>
       </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
       <c r="P22">
         <v>1</v>
       </c>
@@ -2613,8 +3264,23 @@
       <c r="U22">
         <v>1</v>
       </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
       <c r="X22">
         <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
       </c>
       <c r="AC22">
         <v>6</v>
@@ -2630,6 +3296,18 @@
       </c>
       <c r="AG22">
         <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
       </c>
       <c r="AM22">
         <v>4</v>
@@ -2675,21 +3353,63 @@
       <c r="H23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
       <c r="J23">
         <v>1</v>
       </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
       <c r="L23">
         <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
       </c>
       <c r="Q23" t="s">
         <v>48</v>
       </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
       <c r="S23">
         <v>1</v>
       </c>
       <c r="T23">
         <v>1</v>
       </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
       <c r="AC23">
         <v>2</v>
       </c>
@@ -2704,6 +3424,15 @@
       </c>
       <c r="AG23">
         <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
       </c>
       <c r="AK23">
         <v>1</v>
@@ -2767,17 +3496,44 @@
       <c r="M24">
         <v>1</v>
       </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24">
         <v>1</v>
       </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
       <c r="U24">
         <v>1</v>
       </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
       <c r="W24">
         <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>6</v>
@@ -2799,6 +3555,9 @@
       </c>
       <c r="AI24">
         <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
       </c>
       <c r="AK24">
         <v>1</v>
@@ -2862,6 +3621,15 @@
       <c r="M25">
         <v>1</v>
       </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
       <c r="R25">
         <v>1</v>
       </c>
@@ -2873,6 +3641,9 @@
       </c>
       <c r="U25">
         <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
       </c>
       <c r="W25">
         <v>1</v>
@@ -2906,6 +3677,12 @@
       </c>
       <c r="AH25">
         <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
       </c>
       <c r="AK25">
         <v>1</v>
@@ -2951,15 +3728,36 @@
       <c r="G26">
         <v>1</v>
       </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
       <c r="L26">
         <v>1</v>
       </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
       <c r="S26">
         <v>1</v>
       </c>
@@ -2968,6 +3766,24 @@
       </c>
       <c r="U26">
         <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>6</v>
@@ -2983,6 +3799,18 @@
       </c>
       <c r="AG26">
         <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
       </c>
       <c r="AM26">
         <v>2</v>
@@ -3028,6 +3856,9 @@
       <c r="H27">
         <v>1</v>
       </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
       <c r="J27">
         <v>1</v>
       </c>
@@ -3043,6 +3874,12 @@
       <c r="N27">
         <v>1</v>
       </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
       <c r="R27">
         <v>1</v>
       </c>
@@ -3054,6 +3891,12 @@
       </c>
       <c r="U27">
         <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
       </c>
       <c r="X27">
         <v>1</v>
@@ -3138,12 +3981,30 @@
       <c r="H28">
         <v>1</v>
       </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
       <c r="J28">
         <v>1</v>
       </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
       <c r="L28">
         <v>1</v>
       </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
       <c r="R28">
         <v>1</v>
       </c>
@@ -3155,6 +4016,24 @@
       </c>
       <c r="U28">
         <v>1</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
       </c>
       <c r="AC28">
         <v>5</v>
@@ -3173,6 +4052,15 @@
       </c>
       <c r="AH28">
         <v>1</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -3224,12 +4112,24 @@
       <c r="J29">
         <v>1</v>
       </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
       <c r="R29">
         <v>1</v>
       </c>
@@ -3250,6 +4150,9 @@
       </c>
       <c r="X29">
         <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -3272,8 +4175,17 @@
       <c r="AG29">
         <v>1</v>
       </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
       <c r="AJ29">
         <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
       </c>
       <c r="AM29">
         <v>5</v>
@@ -3319,14 +4231,26 @@
       <c r="H30">
         <v>1</v>
       </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
       <c r="J30">
         <v>1</v>
       </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
         <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -3337,17 +4261,26 @@
       <c r="R30">
         <v>1</v>
       </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
       <c r="T30">
         <v>1</v>
       </c>
       <c r="U30">
         <v>1</v>
       </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
       <c r="W30">
         <v>1</v>
       </c>
       <c r="X30">
         <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>1</v>
@@ -3369,6 +4302,15 @@
       </c>
       <c r="AG30">
         <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
       </c>
       <c r="AK30">
         <v>1</v>
@@ -3417,12 +4359,30 @@
       <c r="H31">
         <v>1</v>
       </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
       <c r="J31">
         <v>1</v>
       </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
       <c r="L31">
         <v>1</v>
       </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
       <c r="R31">
         <v>1</v>
       </c>
@@ -3434,6 +4394,24 @@
       </c>
       <c r="U31">
         <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
       </c>
       <c r="AC31">
         <v>5</v>
@@ -3452,6 +4430,15 @@
       </c>
       <c r="AH31">
         <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
       </c>
       <c r="AM31">
         <v>2</v>
@@ -3512,6 +4499,15 @@
       <c r="M32">
         <v>1</v>
       </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
       <c r="R32">
         <v>1</v>
       </c>
@@ -3530,8 +4526,14 @@
       <c r="W32">
         <v>1</v>
       </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
       <c r="Y32">
         <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
       </c>
       <c r="AA32">
         <v>1</v>
@@ -3556,6 +4558,12 @@
       </c>
       <c r="AI32">
         <v>1</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
       </c>
       <c r="AM32">
         <v>3</v>
@@ -3601,26 +4609,59 @@
       <c r="H33">
         <v>1</v>
       </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
       <c r="J33">
         <v>1</v>
       </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
       <c r="R33">
         <v>1</v>
       </c>
       <c r="S33">
         <v>1</v>
       </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
       <c r="U33">
         <v>1</v>
       </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
       <c r="W33">
         <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
       </c>
       <c r="AC33">
         <v>4</v>
@@ -3640,8 +4681,14 @@
       <c r="AH33">
         <v>1</v>
       </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
       <c r="AJ33">
         <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
       </c>
       <c r="AM33">
         <v>2</v>
@@ -3687,6 +4734,9 @@
       <c r="H34">
         <v>1</v>
       </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
       <c r="J34">
         <v>1</v>
       </c>
@@ -3699,6 +4749,18 @@
       <c r="M34">
         <v>1</v>
       </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
       <c r="S34">
         <v>1</v>
       </c>
@@ -3708,8 +4770,23 @@
       <c r="U34">
         <v>1</v>
       </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
       <c r="Y34">
         <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
       </c>
       <c r="AC34">
         <v>5</v>
@@ -3726,8 +4803,17 @@
       <c r="AG34">
         <v>1</v>
       </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
       <c r="AJ34">
         <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
       </c>
       <c r="AM34">
         <v>3</v>
@@ -3770,6 +4856,12 @@
       <c r="G35">
         <v>1</v>
       </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
       <c r="J35">
         <v>1</v>
       </c>
@@ -3778,6 +4870,18 @@
       </c>
       <c r="L35">
         <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
       </c>
       <c r="Q35" t="s">
         <v>50</v>
@@ -3785,9 +4889,15 @@
       <c r="R35">
         <v>1</v>
       </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
       <c r="T35">
         <v>1</v>
       </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
       <c r="V35">
         <v>1</v>
       </c>
@@ -3799,6 +4909,12 @@
       </c>
       <c r="Y35">
         <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
       </c>
       <c r="AC35">
         <v>7</v>
@@ -3817,6 +4933,15 @@
       </c>
       <c r="AH35">
         <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
       </c>
       <c r="AM35">
         <v>2</v>
@@ -3862,6 +4987,9 @@
       <c r="H36">
         <v>1</v>
       </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
       <c r="J36">
         <v>1</v>
       </c>
@@ -3870,6 +4998,18 @@
       </c>
       <c r="L36">
         <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
       </c>
       <c r="Q36" t="s">
         <v>51</v>
@@ -3877,11 +5017,20 @@
       <c r="R36">
         <v>1</v>
       </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
       <c r="T36">
         <v>1</v>
       </c>
       <c r="U36">
         <v>1</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
       </c>
       <c r="X36">
         <v>1</v>
@@ -3912,6 +5061,18 @@
       </c>
       <c r="AG36">
         <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -3957,6 +5118,9 @@
       <c r="H37">
         <v>1</v>
       </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
       <c r="J37">
         <v>1</v>
       </c>
@@ -3969,17 +5133,44 @@
       <c r="M37">
         <v>1</v>
       </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
       <c r="R37">
         <v>1</v>
       </c>
       <c r="S37">
         <v>1</v>
       </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
       <c r="U37">
         <v>1</v>
       </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
       <c r="X37">
         <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
       </c>
       <c r="AC37">
         <v>4</v>
@@ -3995,6 +5186,15 @@
       </c>
       <c r="AG37">
         <v>1</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
       </c>
       <c r="AK37">
         <v>1</v>
@@ -4043,6 +5243,9 @@
       <c r="H38">
         <v>1</v>
       </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
       <c r="J38">
         <v>1</v>
       </c>
@@ -4055,20 +5258,44 @@
       <c r="M38">
         <v>1</v>
       </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
       <c r="R38">
         <v>1</v>
       </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
       <c r="T38">
         <v>1</v>
       </c>
       <c r="U38">
         <v>1</v>
       </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
       <c r="W38">
         <v>1</v>
       </c>
       <c r="X38">
         <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
       </c>
       <c r="AC38">
         <v>7</v>
@@ -4084,6 +5311,12 @@
       </c>
       <c r="AG38">
         <v>1</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
       <c r="AJ38">
         <v>1</v>
@@ -4150,6 +5383,12 @@
       <c r="M39">
         <v>1</v>
       </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
       <c r="P39">
         <v>1</v>
       </c>
@@ -4165,11 +5404,23 @@
       <c r="U39">
         <v>1</v>
       </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
       <c r="Y39">
         <v>1</v>
       </c>
       <c r="Z39">
         <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
       </c>
       <c r="AC39">
         <v>5</v>
@@ -4188,6 +5439,12 @@
       </c>
       <c r="AH39">
         <v>1</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
       </c>
       <c r="AK39">
         <v>1</v>
@@ -4236,14 +5493,29 @@
       <c r="H40">
         <v>1</v>
       </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
       <c r="J40">
         <v>1</v>
       </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
         <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
       </c>
       <c r="Q40" t="s">
         <v>44</v>
@@ -4263,11 +5535,17 @@
       <c r="V40">
         <v>1</v>
       </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
       <c r="X40">
         <v>1</v>
       </c>
       <c r="Y40">
         <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
       </c>
       <c r="AA40">
         <v>1</v>
@@ -4289,6 +5567,15 @@
       </c>
       <c r="AH40">
         <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
       </c>
       <c r="AM40">
         <v>3</v>
@@ -4334,6 +5621,9 @@
       <c r="H41">
         <v>1</v>
       </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
       <c r="J41">
         <v>1</v>
       </c>
@@ -4349,6 +5639,12 @@
       <c r="N41">
         <v>1</v>
       </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
       <c r="R41">
         <v>1</v>
       </c>
@@ -4364,11 +5660,20 @@
       <c r="V41">
         <v>1</v>
       </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
       <c r="X41">
         <v>1</v>
       </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
       <c r="Z41">
         <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
       </c>
       <c r="AC41">
         <v>6</v>
@@ -4385,8 +5690,17 @@
       <c r="AG41">
         <v>1</v>
       </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
       <c r="AI41">
         <v>1</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
       </c>
       <c r="AM41">
         <v>2</v>
@@ -4438,12 +5752,24 @@
       <c r="J42">
         <v>1</v>
       </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
       <c r="R42">
         <v>1</v>
       </c>
@@ -4459,6 +5785,9 @@
       <c r="V42">
         <v>1</v>
       </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
       <c r="X42">
         <v>1</v>
       </c>
@@ -4467,6 +5796,9 @@
       </c>
       <c r="Z42">
         <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
       </c>
       <c r="AC42">
         <v>5</v>
@@ -4486,8 +5818,14 @@
       <c r="AH42">
         <v>1</v>
       </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
       <c r="AJ42">
         <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
       </c>
       <c r="AM42">
         <v>3</v>
@@ -4548,6 +5886,12 @@
       <c r="M43">
         <v>1</v>
       </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
       <c r="P43">
         <v>1</v>
       </c>
@@ -4569,8 +5913,17 @@
       <c r="W43">
         <v>1</v>
       </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
       <c r="Y43">
         <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
       </c>
       <c r="AC43">
         <v>9</v>
@@ -4587,8 +5940,17 @@
       <c r="AG43">
         <v>1</v>
       </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
       <c r="AJ43">
         <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
       </c>
       <c r="AM43">
         <v>2</v>
@@ -4649,6 +6011,12 @@
       <c r="M44">
         <v>1</v>
       </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
       <c r="P44">
         <v>1</v>
       </c>
@@ -4675,6 +6043,9 @@
       </c>
       <c r="Y44">
         <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -4693,6 +6064,18 @@
       </c>
       <c r="AG44">
         <v>1</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
       </c>
       <c r="AM44">
         <v>2</v>
@@ -4744,18 +6127,30 @@
       <c r="J45">
         <v>1</v>
       </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
       <c r="P45">
         <v>1</v>
       </c>
       <c r="R45">
         <v>1</v>
       </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
       <c r="T45">
         <v>1</v>
       </c>
@@ -4767,6 +6162,18 @@
       </c>
       <c r="W45">
         <v>1</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
       </c>
       <c r="AC45">
         <v>7</v>
@@ -4782,6 +6189,18 @@
       </c>
       <c r="AG45">
         <v>1</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
       </c>
       <c r="AM45">
         <v>1</v>
@@ -4827,6 +6246,9 @@
       <c r="H46">
         <v>1</v>
       </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
       <c r="J46">
         <v>1</v>
       </c>
@@ -4839,6 +6261,15 @@
       <c r="M46">
         <v>1</v>
       </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
       <c r="R46">
         <v>1</v>
       </c>
@@ -4851,11 +6282,17 @@
       <c r="U46">
         <v>1</v>
       </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
       <c r="W46">
         <v>1</v>
       </c>
       <c r="X46">
         <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
       </c>
       <c r="Z46">
         <v>1</v>
@@ -4878,8 +6315,14 @@
       <c r="AG46">
         <v>1</v>
       </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
       <c r="AI46">
         <v>1</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
       </c>
       <c r="AK46">
         <v>1</v>
@@ -4928,15 +6371,39 @@
       <c r="H47">
         <v>1</v>
       </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
       <c r="J47">
         <v>1</v>
       </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
       <c r="M47">
         <v>1</v>
       </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
       <c r="S47">
         <v>1</v>
       </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
       <c r="U47">
         <v>1</v>
       </c>
@@ -4945,6 +6412,15 @@
       </c>
       <c r="W47">
         <v>1</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
       </c>
       <c r="AA47">
         <v>1</v>
@@ -4969,6 +6445,9 @@
       </c>
       <c r="AI47">
         <v>1</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
       </c>
       <c r="AK47">
         <v>1</v>
@@ -5017,6 +6496,9 @@
       <c r="H48">
         <v>1</v>
       </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
       <c r="J48">
         <v>1</v>
       </c>
@@ -5029,17 +6511,41 @@
       <c r="M48">
         <v>1</v>
       </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
       <c r="S48">
         <v>1</v>
       </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
       <c r="U48">
         <v>1</v>
       </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
       <c r="W48">
         <v>1</v>
       </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
       <c r="Y48">
         <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
       </c>
       <c r="AA48">
         <v>1</v>
@@ -5061,6 +6567,15 @@
       </c>
       <c r="AH48">
         <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
       </c>
       <c r="AM48">
         <v>2</v>
@@ -5106,6 +6621,9 @@
       <c r="H49">
         <v>1</v>
       </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
       <c r="J49">
         <v>1</v>
       </c>
@@ -5118,6 +6636,15 @@
       <c r="M49">
         <v>1</v>
       </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
       <c r="R49">
         <v>1</v>
       </c>
@@ -5136,11 +6663,17 @@
       <c r="W49">
         <v>1</v>
       </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
       <c r="Y49">
         <v>1</v>
       </c>
       <c r="Z49">
         <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
       </c>
       <c r="AC49">
         <v>6</v>
@@ -5159,6 +6692,15 @@
       </c>
       <c r="AH49">
         <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
       </c>
       <c r="AM49">
         <v>2</v>
@@ -5207,9 +6749,24 @@
       <c r="J50">
         <v>1</v>
       </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
       <c r="L50">
         <v>1</v>
       </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
       <c r="R50">
         <v>1</v>
       </c>
@@ -5222,6 +6779,12 @@
       <c r="U50">
         <v>1</v>
       </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
       <c r="X50">
         <v>1</v>
       </c>
@@ -5230,6 +6793,9 @@
       </c>
       <c r="Z50">
         <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
       </c>
       <c r="AC50">
         <v>4</v>
@@ -5242,6 +6808,21 @@
       </c>
       <c r="AF50">
         <v>3</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
       </c>
       <c r="AM50">
         <v>1</v>
@@ -5287,24 +6868,60 @@
       <c r="H51">
         <v>1</v>
       </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
       <c r="J51">
         <v>1</v>
       </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
       <c r="L51">
         <v>1</v>
       </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
       <c r="S51">
         <v>1</v>
       </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
       <c r="U51">
         <v>1</v>
       </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
       <c r="W51">
         <v>1</v>
       </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
       <c r="Z51">
         <v>1</v>
       </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
       <c r="AC51">
         <v>3</v>
       </c>
@@ -5325,6 +6942,12 @@
       </c>
       <c r="AI51">
         <v>1</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
       </c>
       <c r="AL51" t="s">
         <v>53</v>
@@ -5373,6 +6996,9 @@
       <c r="H52">
         <v>1</v>
       </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
       <c r="J52">
         <v>1</v>
       </c>
@@ -5385,20 +7011,44 @@
       <c r="M52">
         <v>1</v>
       </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
       <c r="R52">
         <v>1</v>
       </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
       <c r="T52">
         <v>1</v>
       </c>
       <c r="U52">
         <v>1</v>
       </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
       <c r="W52">
         <v>1</v>
       </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
       <c r="Y52">
         <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
       </c>
       <c r="AC52">
         <v>6</v>
@@ -5414,6 +7064,18 @@
       </c>
       <c r="AG52">
         <v>1</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
       </c>
       <c r="AM52">
         <v>2</v>
@@ -5459,11 +7121,59 @@
       <c r="H53">
         <v>1</v>
       </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
       <c r="J53">
         <v>1</v>
       </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
       <c r="L53">
         <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
       </c>
       <c r="AB53" t="s">
         <v>54</v>
@@ -5482,6 +7192,18 @@
       </c>
       <c r="AG53">
         <v>1</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
       </c>
       <c r="AM53">
         <v>1</v>
@@ -5527,6 +7249,9 @@
       <c r="H54">
         <v>1</v>
       </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
       <c r="J54">
         <v>1</v>
       </c>
@@ -5539,11 +7264,44 @@
       <c r="M54">
         <v>1</v>
       </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
       <c r="T54">
         <v>1</v>
       </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
       <c r="Z54">
         <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
       </c>
       <c r="AC54">
         <v>9</v>
@@ -5560,8 +7318,17 @@
       <c r="AG54">
         <v>1</v>
       </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
       <c r="AI54">
         <v>1</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
       </c>
       <c r="AM54">
         <v>5</v>
@@ -5613,6 +7380,9 @@
       <c r="J55">
         <v>1</v>
       </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
       <c r="L55">
         <v>1</v>
       </c>
@@ -5625,6 +7395,9 @@
       <c r="O55">
         <v>1</v>
       </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
       <c r="R55">
         <v>1</v>
       </c>
@@ -5645,6 +7418,15 @@
       </c>
       <c r="X55">
         <v>1</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
       </c>
       <c r="AC55">
         <v>7</v>
@@ -5658,11 +7440,17 @@
       <c r="AF55">
         <v>2</v>
       </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
       <c r="AH55">
         <v>1</v>
       </c>
       <c r="AI55">
         <v>1</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
       </c>
       <c r="AK55">
         <v>1</v>
@@ -5711,15 +7499,33 @@
       <c r="H56">
         <v>1</v>
       </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
       <c r="J56">
         <v>1</v>
       </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
       <c r="S56">
         <v>1</v>
       </c>
@@ -5728,6 +7534,24 @@
       </c>
       <c r="U56">
         <v>1</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
       </c>
       <c r="AC56">
         <v>9</v>
@@ -5746,6 +7570,15 @@
       </c>
       <c r="AH56">
         <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
       </c>
       <c r="AM56">
         <v>1</v>
@@ -5788,9 +7621,18 @@
       <c r="G57">
         <v>1</v>
       </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
       <c r="J57">
         <v>1</v>
       </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
       <c r="L57">
         <v>1</v>
       </c>
@@ -5800,11 +7642,41 @@
       <c r="N57">
         <v>1</v>
       </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
       <c r="R57">
         <v>1</v>
       </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
       <c r="T57">
         <v>1</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
       </c>
       <c r="AC57">
         <v>7</v>
@@ -5823,6 +7695,15 @@
       </c>
       <c r="AH57">
         <v>1</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
       </c>
       <c r="AM57">
         <v>2</v>
@@ -5868,15 +7749,30 @@
       <c r="H58">
         <v>1</v>
       </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
       <c r="J58">
         <v>1</v>
       </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
       <c r="R58">
         <v>1</v>
       </c>
@@ -5888,6 +7784,24 @@
       </c>
       <c r="U58">
         <v>1</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
       </c>
       <c r="AC58">
         <v>5</v>
@@ -5906,6 +7820,15 @@
       </c>
       <c r="AH58">
         <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
       </c>
       <c r="AM58">
         <v>2</v>
@@ -5963,17 +7886,44 @@
       <c r="M59">
         <v>1</v>
       </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
       <c r="T59">
         <v>1</v>
       </c>
       <c r="U59">
         <v>1</v>
       </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
       <c r="W59">
         <v>1</v>
       </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
       <c r="Y59">
         <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
       </c>
       <c r="AC59">
         <v>5</v>
@@ -5986,6 +7936,18 @@
       </c>
       <c r="AF59">
         <v>1</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
       </c>
       <c r="AK59">
         <v>1</v>
@@ -6049,6 +8011,12 @@
       <c r="M60">
         <v>1</v>
       </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
       <c r="P60">
         <v>1</v>
       </c>
@@ -6073,12 +8041,18 @@
       <c r="W60">
         <v>1</v>
       </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
       <c r="Y60">
         <v>1</v>
       </c>
       <c r="Z60">
         <v>1</v>
       </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
       <c r="AC60">
         <v>3</v>
       </c>
@@ -6093,6 +8067,15 @@
       </c>
       <c r="AG60">
         <v>1</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
       </c>
       <c r="AK60">
         <v>1</v>
@@ -6159,6 +8142,12 @@
       <c r="N61">
         <v>1</v>
       </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
       <c r="R61">
         <v>1</v>
       </c>
@@ -6171,8 +8160,23 @@
       <c r="U61">
         <v>1</v>
       </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
       <c r="W61">
         <v>1</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
       </c>
       <c r="AC61">
         <v>9</v>
@@ -6188,6 +8192,18 @@
       </c>
       <c r="AG61">
         <v>1</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
       </c>
       <c r="AM61">
         <v>3</v>
@@ -6233,6 +8249,9 @@
       <c r="H62">
         <v>1</v>
       </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
       <c r="J62">
         <v>1</v>
       </c>
@@ -6245,20 +8264,41 @@
       <c r="M62">
         <v>1</v>
       </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
       <c r="R62">
         <v>1</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
       <c r="U62">
         <v>1</v>
       </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
       <c r="W62">
         <v>1</v>
       </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
       <c r="Y62">
         <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
       </c>
       <c r="AA62">
         <v>1</v>
@@ -6275,8 +8315,20 @@
       <c r="AF62">
         <v>3</v>
       </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
       <c r="AI62">
         <v>1</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
       </c>
       <c r="AM62">
         <v>2</v>
@@ -6322,6 +8374,9 @@
       <c r="H63">
         <v>1</v>
       </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
       <c r="J63">
         <v>1</v>
       </c>
@@ -6331,15 +8386,48 @@
       <c r="L63">
         <v>1</v>
       </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
       <c r="S63">
         <v>1</v>
       </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
       <c r="U63">
         <v>1</v>
       </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
       <c r="Y63">
         <v>1</v>
       </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
       <c r="AC63">
         <v>3</v>
       </c>
@@ -6352,8 +8440,20 @@
       <c r="AF63">
         <v>1</v>
       </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
       <c r="AI63">
         <v>1</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
       </c>
       <c r="AM63">
         <v>4</v>
@@ -6399,12 +8499,27 @@
       <c r="H64">
         <v>1</v>
       </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
       <c r="J64">
         <v>1</v>
       </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
       <c r="L64">
         <v>1</v>
       </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
       <c r="P64">
         <v>1</v>
       </c>
@@ -6414,15 +8529,27 @@
       <c r="S64">
         <v>1</v>
       </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
       <c r="U64">
         <v>1</v>
       </c>
       <c r="V64">
         <v>1</v>
       </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
       <c r="X64">
         <v>1</v>
       </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
       <c r="AA64">
         <v>1</v>
       </c>
@@ -6443,6 +8570,12 @@
       </c>
       <c r="AH64">
         <v>1</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
       </c>
       <c r="AK64">
         <v>1</v>
@@ -6506,6 +8639,15 @@
       <c r="M65">
         <v>1</v>
       </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
       <c r="Q65" t="s">
         <v>51</v>
       </c>
@@ -6527,9 +8669,18 @@
       <c r="W65">
         <v>1</v>
       </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
       <c r="Y65">
         <v>1</v>
       </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
       <c r="AC65">
         <v>3</v>
       </c>
@@ -6544,6 +8695,18 @@
       </c>
       <c r="AG65">
         <v>1</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
       </c>
       <c r="AM65">
         <v>2</v>
@@ -6589,6 +8752,9 @@
       <c r="H66">
         <v>1</v>
       </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
       <c r="J66">
         <v>1</v>
       </c>
@@ -6601,14 +8767,44 @@
       <c r="M66">
         <v>1</v>
       </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
       <c r="R66">
         <v>1</v>
       </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
       <c r="T66">
         <v>1</v>
       </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
       <c r="Y66">
         <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
       </c>
       <c r="AC66">
         <v>5</v>
@@ -6622,8 +8818,20 @@
       <c r="AF66">
         <v>3</v>
       </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
       <c r="AI66">
         <v>1</v>
+      </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
       </c>
       <c r="AM66">
         <v>4</v>
@@ -6687,6 +8895,12 @@
       <c r="N67">
         <v>1</v>
       </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
       <c r="R67">
         <v>1</v>
       </c>
@@ -6705,8 +8919,14 @@
       <c r="W67">
         <v>1</v>
       </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
       <c r="Y67">
         <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
       </c>
       <c r="AA67">
         <v>1</v>
@@ -6728,6 +8948,9 @@
       </c>
       <c r="AH67">
         <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
       <c r="AJ67">
         <v>1</v>
@@ -6794,6 +9017,15 @@
       <c r="M68">
         <v>1</v>
       </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
       <c r="R68">
         <v>1</v>
       </c>
@@ -6820,6 +9052,9 @@
       </c>
       <c r="Z68">
         <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
       </c>
       <c r="AC68">
         <v>9</v>
@@ -6833,11 +9068,20 @@
       <c r="AF68">
         <v>2</v>
       </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
       <c r="AH68">
         <v>1</v>
       </c>
       <c r="AI68">
         <v>1</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
       </c>
       <c r="AM68">
         <v>4</v>
@@ -6898,6 +9142,15 @@
       <c r="M69">
         <v>1</v>
       </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
       <c r="R69">
         <v>1</v>
       </c>
@@ -6910,11 +9163,23 @@
       <c r="U69">
         <v>1</v>
       </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
       <c r="W69">
         <v>1</v>
       </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
       <c r="Y69">
         <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
       </c>
       <c r="AC69">
         <v>9</v>
@@ -6930,6 +9195,15 @@
       </c>
       <c r="AG69">
         <v>1</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>0</v>
       </c>
       <c r="AK69">
         <v>1</v>
